--- a/data/Missing risks evidence.xlsx
+++ b/data/Missing risks evidence.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="151">
   <si>
     <t>Basic estimation exercise</t>
   </si>
@@ -433,6 +433,15 @@
     <t>Data available for IPCC regions and also for vulnerable people only (income &lt;10$/day), risk from impacts in the water sector, data for a risk score &gt; 5</t>
   </si>
   <si>
+    <t>Sea innundation</t>
+  </si>
+  <si>
+    <t>Economic growth</t>
+  </si>
+  <si>
+    <t>Mortality</t>
+  </si>
+  <si>
     <t>Our team</t>
   </si>
   <si>
@@ -19308,9 +19317,15 @@
       <c r="N1" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
+      <c r="O1" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>141</v>
+      </c>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -19359,6 +19374,15 @@
       <c r="N2" s="11">
         <v>0.25</v>
       </c>
+      <c r="O2" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="P2" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="Q2" s="23">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="21" t="s">
@@ -19400,6 +19424,15 @@
       <c r="N3" s="11">
         <v>0.25</v>
       </c>
+      <c r="O3" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="P3" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="Q3" s="11">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
@@ -19438,6 +19471,15 @@
       <c r="N4" s="11">
         <v>0.0</v>
       </c>
+      <c r="O4" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="P4" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
@@ -19473,6 +19515,15 @@
       <c r="N5" s="11">
         <v>0.0</v>
       </c>
+      <c r="O5" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="P5" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
@@ -19505,6 +19556,15 @@
       <c r="N6" s="11">
         <v>0.0</v>
       </c>
+      <c r="O6" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="P6" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
@@ -19534,6 +19594,15 @@
       <c r="N7" s="11">
         <v>0.5</v>
       </c>
+      <c r="O7" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="P7" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
@@ -19560,6 +19629,15 @@
       <c r="N8" s="11">
         <v>0.5</v>
       </c>
+      <c r="O8" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="P8" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="22" t="s">
@@ -19583,6 +19661,15 @@
       <c r="N9" s="11">
         <v>0.25</v>
       </c>
+      <c r="O9" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="P9" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="22" t="s">
@@ -19603,6 +19690,15 @@
       <c r="N10" s="11">
         <v>0.0</v>
       </c>
+      <c r="O10" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="P10" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="22" t="s">
@@ -19620,6 +19716,15 @@
       <c r="N11" s="11">
         <v>0.0</v>
       </c>
+      <c r="O11" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="P11" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="22" t="s">
@@ -19634,6 +19739,15 @@
       <c r="N12" s="11">
         <v>0.25</v>
       </c>
+      <c r="O12" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="P12" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="Q12" s="11">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="22" t="s">
@@ -19645,6 +19759,15 @@
       <c r="N13" s="11">
         <v>0.25</v>
       </c>
+      <c r="O13" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="P13" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="Q13" s="23">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="22" t="s">
@@ -19653,12 +19776,48 @@
       <c r="N14" s="11">
         <v>1.0</v>
       </c>
+      <c r="O14" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="P14" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="Q14" s="23">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="O15" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="P15" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="Q15" s="11">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="1"/>
+      <c r="A16" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="P16" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="Q16" s="11">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="1"/>
+      <c r="A17" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q17" s="11">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1"/>
@@ -22673,9 +22832,15 @@
       <c r="N1" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
+      <c r="O1" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>141</v>
+      </c>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -22717,10 +22882,10 @@
       <c r="J2" s="11">
         <v>0.0</v>
       </c>
-      <c r="K2" s="23">
+      <c r="K2" s="11">
         <v>0.25</v>
       </c>
-      <c r="L2" s="23">
+      <c r="L2" s="11">
         <v>0.5</v>
       </c>
       <c r="M2" s="11">
@@ -22728,6 +22893,15 @@
       </c>
       <c r="N2" s="11">
         <v>1.0</v>
+      </c>
+      <c r="O2" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="P2" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="Q2" s="23">
+        <v>0.25</v>
       </c>
     </row>
     <row r="3">
@@ -22758,7 +22932,7 @@
       <c r="J3" s="11">
         <v>0.0</v>
       </c>
-      <c r="K3" s="23">
+      <c r="K3" s="11">
         <v>0.5</v>
       </c>
       <c r="L3" s="11">
@@ -22769,6 +22943,15 @@
       </c>
       <c r="N3" s="11">
         <v>1.0</v>
+      </c>
+      <c r="O3" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="P3" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="Q3" s="11">
+        <v>0.25</v>
       </c>
     </row>
     <row r="4">
@@ -22808,6 +22991,15 @@
       <c r="N4" s="11">
         <v>0.0</v>
       </c>
+      <c r="O4" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="P4" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
@@ -22840,8 +23032,17 @@
       <c r="M5" s="11">
         <v>0.25</v>
       </c>
-      <c r="N5" s="23">
+      <c r="N5" s="11">
         <v>0.75</v>
+      </c>
+      <c r="O5" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="P5" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
@@ -22875,6 +23076,15 @@
       <c r="N6" s="11">
         <v>0.0</v>
       </c>
+      <c r="O6" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="P6" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
@@ -22904,6 +23114,15 @@
       <c r="N7" s="11">
         <v>0.0</v>
       </c>
+      <c r="O7" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="P7" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
@@ -22930,6 +23149,15 @@
       <c r="N8" s="11">
         <v>0.0</v>
       </c>
+      <c r="O8" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="P8" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="22" t="s">
@@ -22953,6 +23181,15 @@
       <c r="N9" s="11">
         <v>1.0</v>
       </c>
+      <c r="O9" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="P9" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="22" t="s">
@@ -22973,6 +23210,15 @@
       <c r="N10" s="11">
         <v>0.0</v>
       </c>
+      <c r="O10" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="P10" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="22" t="s">
@@ -22990,6 +23236,15 @@
       <c r="N11" s="11">
         <v>0.0</v>
       </c>
+      <c r="O11" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="P11" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="22" t="s">
@@ -23004,6 +23259,15 @@
       <c r="N12" s="11">
         <v>1.0</v>
       </c>
+      <c r="O12" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="P12" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="Q12" s="11">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="22" t="s">
@@ -23015,6 +23279,15 @@
       <c r="N13" s="11">
         <v>1.0</v>
       </c>
+      <c r="O13" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="P13" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="Q13" s="11">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="22" t="s">
@@ -23023,15 +23296,48 @@
       <c r="N14" s="11">
         <v>0.0</v>
       </c>
+      <c r="O14" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="P14" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="Q14" s="11">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="1"/>
+      <c r="A15" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="O15" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="P15" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="Q15" s="11">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="1"/>
+      <c r="A16" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="P16" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="Q16" s="11">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="1"/>
+      <c r="A17" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q17" s="11">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1"/>
@@ -26003,16 +26309,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="6" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>19</v>
@@ -26037,13 +26343,13 @@
     </row>
     <row r="3">
       <c r="A3" s="11" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>37</v>
@@ -26054,7 +26360,7 @@
     </row>
     <row r="4">
       <c r="A4" s="11" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>51</v>
@@ -26081,7 +26387,7 @@
     </row>
     <row r="7">
       <c r="B7" s="13" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
